--- a/dados/Arquivo.xlsx
+++ b/dados/Arquivo.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:K12"/>
+  <dimension ref="A3:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="A11:C11"/>
@@ -942,6 +942,234 @@
         </is>
       </c>
       <c r="K12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>médio</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>um dois três</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>11/11 11 11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9049</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>faild</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>hoje</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>quadro</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Cecília14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>faild</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>um dois três</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>hum</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>90489</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>faild</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>faild</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Felipe</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25 anos 25 anos</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>superior</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>um dois três</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>San o</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9049</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>faild</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Dom</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mateus16</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>superior</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>um dois três</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>90489</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>faild</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>5</t>
         </is>
